--- a/result/tables_200420.xlsx
+++ b/result/tables_200420.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TypeName_point" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="75">
   <si>
     <t>TypeName.1</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>total of forest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>調查面積佔AREA比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -251,12 +263,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="194" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +294,13 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -303,25 +327,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="千分位" xfId="1" builtinId="3"/>
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -749,15 +789,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P1" sqref="N1:P1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -806,12 +851,18 @@
       <c r="P1" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>7582089215</v>
       </c>
       <c r="C2" t="s">
@@ -865,12 +916,23 @@
         <f>_xlfn.STDEV.P($D2:$M2)/SQRT(10)</f>
         <v>0.52535702146254781</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="14">
+        <f>B2/1000000</f>
+        <v>7582.089215</v>
+      </c>
+      <c r="W2" s="13">
+        <f>0.1*0.1*PI()*R3/V2</f>
+        <v>1.9706197377516691E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>7582089215</v>
       </c>
       <c r="C3" t="s">
@@ -924,12 +986,14 @@
         <f t="shared" ref="S3:S15" si="2">_xlfn.STDEV.P($D3:$M3)/SQRT(10)</f>
         <v>8.4500887569303078</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V3" s="14"/>
+      <c r="W3" s="13"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>5670880481.1300001</v>
       </c>
       <c r="C4" t="s">
@@ -983,12 +1047,23 @@
         <f t="shared" si="2"/>
         <v>0.56656861896861177</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="14">
+        <f t="shared" ref="V3:V15" si="3">B4/1000000</f>
+        <v>5670.8804811299997</v>
+      </c>
+      <c r="W4" s="13">
+        <f>0.1*0.1*PI()*R5/V4</f>
+        <v>9.672608674120344E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>5670880481.1300001</v>
       </c>
       <c r="C5" t="s">
@@ -1042,12 +1117,14 @@
         <f t="shared" si="2"/>
         <v>6.0036655469804447</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V5" s="14"/>
+      <c r="W5" s="13"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>4605321116</v>
       </c>
       <c r="C6" t="s">
@@ -1101,12 +1178,23 @@
         <f t="shared" si="2"/>
         <v>0.72180329730474346</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="14">
+        <f>B6/1000000</f>
+        <v>4605.3211160000001</v>
+      </c>
+      <c r="W6" s="13">
+        <f>0.1*0.1*PI()*R7/V6</f>
+        <v>1.0989691353659684E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>4605321116</v>
       </c>
       <c r="C7" t="s">
@@ -1160,12 +1248,14 @@
         <f t="shared" si="2"/>
         <v>2.8825336077832642</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V7" s="14"/>
+      <c r="W7" s="13"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="10">
         <v>3582207089</v>
       </c>
       <c r="C8" t="s">
@@ -1219,12 +1309,23 @@
         <f t="shared" si="2"/>
         <v>0.9797958971132712</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="14">
+        <f>B8/1000000</f>
+        <v>3582.207089</v>
+      </c>
+      <c r="W8" s="13">
+        <f>0.1*0.1*PI()*R9/V8</f>
+        <v>5.5689447468164474E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="10">
         <v>3582207089</v>
       </c>
       <c r="C9" t="s">
@@ -1278,12 +1379,14 @@
         <f t="shared" si="2"/>
         <v>3.1662280397975127</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V9" s="14"/>
+      <c r="W9" s="13"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="10">
         <v>9254959524.1000004</v>
       </c>
       <c r="C10" t="s">
@@ -1337,12 +1440,23 @@
         <f t="shared" si="2"/>
         <v>0.40620192023179796</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="14">
+        <f t="shared" si="3"/>
+        <v>9254.9595241000006</v>
+      </c>
+      <c r="W10" s="13">
+        <f>0.1*0.1*PI()*R11/V10</f>
+        <v>1.9121198068548237E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="10">
         <v>9254959524.1000004</v>
       </c>
       <c r="C11" t="s">
@@ -1396,12 +1510,14 @@
         <f t="shared" si="2"/>
         <v>25.586344013946185</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V11" s="14"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="10">
         <v>5803515390</v>
       </c>
       <c r="C12" t="s">
@@ -1455,12 +1571,23 @@
         <f t="shared" si="2"/>
         <v>0.47853944456021591</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" s="14">
+        <f t="shared" si="3"/>
+        <v>5803.5153899999996</v>
+      </c>
+      <c r="W12" s="13">
+        <f>0.1*0.1*PI()*R13/V12</f>
+        <v>8.2552185611149643E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="10">
         <v>5803515390</v>
       </c>
       <c r="C13" t="s">
@@ -1514,8 +1641,14 @@
         <f t="shared" si="2"/>
         <v>4.6930800121029259</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V13" s="14"/>
+      <c r="W13" s="13"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <f>SUM(B2,B4,B6,B8,B10,B12)</f>
+        <v>36498972815.230003</v>
+      </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -1524,39 +1657,39 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:M15" si="3">SUMIF($C$2:$C$13,$C14,E$2:E$13)</f>
+        <f t="shared" ref="E14:M15" si="4">SUMIF($C$2:$C$13,$C14,E$2:E$13)</f>
         <v>23</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="N14" s="3">
@@ -1579,8 +1712,23 @@
         <f t="shared" si="2"/>
         <v>1.6958773540560059</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="14">
+        <f t="shared" si="3"/>
+        <v>36498.972815230001</v>
+      </c>
+      <c r="W14" s="13">
+        <f>0.1*0.1*PI()*R15/V14</f>
+        <v>1.3690843575506896E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <f>SUM(B2+B4+B8+B10+B6+B12)</f>
+        <v>36498972815.230003</v>
+      </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -1589,39 +1737,39 @@
         <v>1717</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1639</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1706</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1557</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1526</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1486</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1670</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1540</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1567</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1498</v>
       </c>
       <c r="N15" s="3">
@@ -1644,46 +1792,47 @@
         <f t="shared" si="2"/>
         <v>25.666398266994921</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V15" s="12"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16">
         <f>D14/D15</f>
         <v>1.2230634828188701E-2</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:M16" si="4">E14/E15</f>
+        <f t="shared" ref="E16:M16" si="5">E14/E15</f>
         <v>1.4032946918852958E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.2063305978898014E-3</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4771997430956968E-2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.8296199213630409E-3</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3458950201884253E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6167664670658683E-2</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.012987012987013E-2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9144862795149969E-2</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.602136181575434E-2</v>
       </c>
     </row>
@@ -1694,117 +1843,117 @@
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5">
-        <f t="shared" ref="O18:P18" si="5">P2*1000</f>
+        <f t="shared" ref="P18" si="6">P2*1000</f>
         <v>1.1016886658695089</v>
       </c>
     </row>
     <row r="19" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N19" s="5">
-        <f t="shared" ref="N19:P19" si="6">N3*1000</f>
+        <f t="shared" ref="N19:P19" si="7">N3*1000</f>
         <v>8.7921473405978894</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1016886658695089</v>
       </c>
     </row>
     <row r="20" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N20" s="5">
-        <f t="shared" ref="N20:P20" si="7">N4*1000</f>
+        <f t="shared" ref="N20:P20" si="8">N4*1000</f>
         <v>27.793743272464109</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1163209283497659</v>
       </c>
     </row>
     <row r="21" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N21" s="5">
-        <f t="shared" ref="N21:P21" si="8">N5*1000</f>
+        <f t="shared" ref="N21:P21" si="9">N5*1000</f>
         <v>27.793743272464109</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1163209283497659</v>
       </c>
     </row>
     <row r="22" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N22" s="5">
-        <f t="shared" ref="N22:P22" si="9">N6*1000</f>
+        <f t="shared" ref="N22:P22" si="10">N6*1000</f>
         <v>39.505372164957983</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.1943011075887133</v>
       </c>
     </row>
     <row r="23" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N23" s="5">
-        <f t="shared" ref="N23:P23" si="10">N7*1000</f>
+        <f t="shared" ref="N23:P23" si="11">N7*1000</f>
         <v>39.505372164957983</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.1943011075887133</v>
       </c>
     </row>
     <row r="24" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N24" s="5">
-        <f t="shared" ref="N24:P24" si="11">N8*1000</f>
+        <f t="shared" ref="N24:P24" si="12">N8*1000</f>
         <v>41.677702355668458</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13.569074456572087</v>
       </c>
     </row>
     <row r="25" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N25" s="5">
-        <f t="shared" ref="N25:P25" si="12">N9*1000</f>
+        <f t="shared" ref="N25:P25" si="13">N9*1000</f>
         <v>41.677702355668458</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13.569074456572087</v>
       </c>
     </row>
     <row r="26" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N26" s="5">
-        <f t="shared" ref="N26:P26" si="13">N10*1000</f>
+        <f t="shared" ref="N26:P26" si="14">N10*1000</f>
         <v>2.6389519493006697</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.71837485240501786</v>
       </c>
     </row>
     <row r="27" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N27" s="5">
-        <f t="shared" ref="N27:P27" si="14">N11*1000</f>
+        <f t="shared" ref="N27:P27" si="15">N11*1000</f>
         <v>2.6389519493006697</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.71837485240501786</v>
       </c>
     </row>
     <row r="28" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N28" s="5">
-        <f t="shared" ref="N28:P28" si="15">N12*1000</f>
+        <f t="shared" ref="N28:P28" si="16">N12*1000</f>
         <v>21.137449113646618</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.9116930294158361</v>
       </c>
     </row>
@@ -1815,18 +1964,18 @@
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5">
-        <f t="shared" ref="O29:P29" si="16">P13*1000</f>
+        <f t="shared" ref="P29" si="17">P13*1000</f>
         <v>3.9116930294158361</v>
       </c>
     </row>
     <row r="30" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N30" s="5">
-        <f t="shared" ref="N30:P31" si="17">N14*1000</f>
+        <f t="shared" ref="N30:P31" si="18">N14*1000</f>
         <v>14.399423931056882</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.1234470553032772</v>
       </c>
     </row>
@@ -1837,7 +1986,7 @@
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.1234470553032772</v>
       </c>
     </row>
@@ -3899,19 +4048,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3957,8 +4108,17 @@
       <c r="O1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4003,8 +4163,18 @@
         <f>_xlfn.STDEV.P(C2:L2)/SQRT(10)</f>
         <v>4.8868479760962435E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="15">
+        <v>1338.4422270000002</v>
+      </c>
+      <c r="V2" s="13">
+        <f>0.1*0.1*PI()*P4/U2</f>
+        <v>4.3869182779148249E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4044,15 +4214,19 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="P3" s="4">
-        <f t="shared" ref="P2:P14" si="0">AVERAGE(C3:L3)</f>
+        <f t="shared" ref="P3:P13" si="0">AVERAGE(C3:L3)</f>
         <v>3.1</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q16" si="1">_xlfn.STDEV.P(C3:L3)/SQRT(10)</f>
+        <f t="shared" ref="Q3:Q15" si="1">_xlfn.STDEV.P(C3:L3)/SQRT(10)</f>
         <v>0.84202137740083538</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4092,15 +4266,19 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="P4" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C4:L4)</f>
         <v>186.9</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
         <v>3.2324912992922346</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
@@ -4147,8 +4325,15 @@
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="15">
+        <v>268.80487399999998</v>
+      </c>
+      <c r="V5" s="16"/>
+    </row>
+    <row r="6" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -4195,8 +4380,12 @@
         <f t="shared" si="1"/>
         <v>0.20248456731316586</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="7" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>65</v>
       </c>
@@ -4243,8 +4432,12 @@
         <f t="shared" si="1"/>
         <v>13.659612000346129</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="15"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4291,8 +4484,18 @@
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="15">
+        <v>3006.1501980000003</v>
+      </c>
+      <c r="V8" s="13">
+        <f>0.1*0.1*PI()*P10/U8</f>
+        <v>1.4609870566815008E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4339,8 +4542,12 @@
         <f t="shared" si="1"/>
         <v>0.17029386365926399</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="15"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4387,8 +4594,12 @@
         <f t="shared" si="1"/>
         <v>4.3030221937610316</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="15"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4435,8 +4646,18 @@
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="15">
+        <v>2632.273263</v>
+      </c>
+      <c r="V11" s="13">
+        <f>0.1*0.1*PI()*P13/U11</f>
+        <v>1.9585176117563486E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4483,8 +4704,12 @@
         <f t="shared" si="1"/>
         <v>0.55587768438749174</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="15"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4531,8 +4756,12 @@
         <f t="shared" si="1"/>
         <v>3.2355834095260163</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="15"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4579,8 +4808,18 @@
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T14" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="15">
+        <v>14559.547028999999</v>
+      </c>
+      <c r="V14" s="13">
+        <f>0.1*0.1*PI()*P16/U14</f>
+        <v>2.3730982794561324E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4627,8 +4866,11 @@
         <f t="shared" si="1"/>
         <v>1.2087183294713453</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4673,8 +4915,11 @@
         <f>_xlfn.STDEV.P(C16:L16)/SQRT(10)</f>
         <v>18.766885729923331</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -4729,8 +4974,11 @@
         <f>_xlfn.STDEV.P(C18:L18)/SQRT(10)</f>
         <v>6.8816860675967903E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -4782,11 +5030,14 @@
         <v>23.5</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" ref="Q19:Q20" si="4">_xlfn.STDEV.P(C19:L19)/SQRT(10)</f>
+        <f t="shared" ref="Q19" si="4">_xlfn.STDEV.P(C19:L19)/SQRT(10)</f>
         <v>1.8343936327844139</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -4841,8 +5092,11 @@
         <f>_xlfn.STDEV.P(C20:L20)/SQRT(10)</f>
         <v>34.012777010999848</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -4897,8 +5151,19 @@
         <f>_xlfn.STDEV.P(C23:L23)/SQRT(10)</f>
         <v>1.1234470553032772E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T23" t="s">
+        <v>71</v>
+      </c>
+      <c r="U23" s="17">
+        <f>SUM(U2+U8+U11+U14)</f>
+        <v>21536.412716999999</v>
+      </c>
+      <c r="V23" s="13">
+        <f>0.1*0.1*PI()*P25/U23</f>
+        <v>2.3202644472240614E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -4950,11 +5215,14 @@
         <v>22.8</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" ref="Q24:Q25" si="7">_xlfn.STDEV.P(C24:L24)/SQRT(10)</f>
+        <f t="shared" ref="Q24" si="7">_xlfn.STDEV.P(C24:L24)/SQRT(10)</f>
         <v>1.6958773540560059</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -5008,6 +5276,9 @@
       <c r="Q25" s="4">
         <f>_xlfn.STDEV.P(C25:L25)/SQRT(10)</f>
         <v>25.666398266994921</v>
+      </c>
+      <c r="T25" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/result/tables_200420.xlsx
+++ b/result/tables_200420.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TypeName_point" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="75">
   <si>
     <t>TypeName.1</t>
   </si>
@@ -268,10 +268,10 @@
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
-    <numFmt numFmtId="188" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="194" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -349,14 +349,14 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -789,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1051,7 +1051,7 @@
         <v>30</v>
       </c>
       <c r="V4" s="14">
-        <f t="shared" ref="V3:V15" si="3">B4/1000000</f>
+        <f t="shared" ref="V4:V14" si="3">B4/1000000</f>
         <v>5670.8804811299997</v>
       </c>
       <c r="W4" s="13">
@@ -1836,7 +1836,7 @@
         <v>1.602136181575434E-2</v>
       </c>
     </row>
-    <row r="18" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N18" s="5">
         <f>N2*1000</f>
         <v>8.7921473405978894</v>
@@ -1847,7 +1847,7 @@
         <v>1.1016886658695089</v>
       </c>
     </row>
-    <row r="19" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N19" s="5">
         <f t="shared" ref="N19:P19" si="7">N3*1000</f>
         <v>8.7921473405978894</v>
@@ -1857,8 +1857,19 @@
         <f t="shared" si="7"/>
         <v>1.1016886658695089</v>
       </c>
-    </row>
-    <row r="20" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="3">
+        <f>N2/0.1/0.1/PI()</f>
+        <v>0.27986274192968313</v>
+      </c>
+      <c r="T19" s="3">
+        <f>O2/0.1/0.1/PI()</f>
+        <v>0.1108942450753117</v>
+      </c>
+    </row>
+    <row r="20" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N20" s="5">
         <f t="shared" ref="N20:P20" si="8">N4*1000</f>
         <v>27.793743272464109</v>
@@ -1868,132 +1879,281 @@
         <f t="shared" si="8"/>
         <v>4.1163209283497659</v>
       </c>
-    </row>
-    <row r="21" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="R20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" ref="S20:T20" si="9">N3/0.1/0.1/PI()</f>
+        <v>0.27986274192968313</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" si="9"/>
+        <v>0.1108942450753117</v>
+      </c>
+    </row>
+    <row r="21" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N21" s="5">
-        <f t="shared" ref="N21:P21" si="9">N5*1000</f>
+        <f t="shared" ref="N21:P21" si="10">N5*1000</f>
         <v>27.793743272464109</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.1163209283497659</v>
       </c>
-    </row>
-    <row r="22" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="R21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" ref="S21:T21" si="11">N4/0.1/0.1/PI()</f>
+        <v>0.8847023257679546</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="11"/>
+        <v>0.4143423781861087</v>
+      </c>
+    </row>
+    <row r="22" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N22" s="5">
-        <f t="shared" ref="N22:P22" si="10">N6*1000</f>
+        <f t="shared" ref="N22:P22" si="12">N6*1000</f>
         <v>39.505372164957983</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.1943011075887133</v>
       </c>
-    </row>
-    <row r="23" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="R22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" ref="S22:T22" si="13">N5/0.1/0.1/PI()</f>
+        <v>0.8847023257679546</v>
+      </c>
+      <c r="T22" s="3">
+        <f t="shared" si="13"/>
+        <v>0.4143423781861087</v>
+      </c>
+    </row>
+    <row r="23" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N23" s="5">
-        <f t="shared" ref="N23:P23" si="11">N7*1000</f>
+        <f t="shared" ref="N23:P23" si="14">N7*1000</f>
         <v>39.505372164957983</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.1943011075887133</v>
       </c>
-    </row>
-    <row r="24" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="R23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" ref="S23:T23" si="15">N6/0.1/0.1/PI()</f>
+        <v>1.2574950517476067</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="15"/>
+        <v>0.52285016435680864</v>
+      </c>
+    </row>
+    <row r="24" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N24" s="5">
-        <f t="shared" ref="N24:P24" si="12">N8*1000</f>
+        <f t="shared" ref="N24:P24" si="16">N8*1000</f>
         <v>41.677702355668458</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13.569074456572087</v>
       </c>
-    </row>
-    <row r="25" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="R24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" ref="S24:T24" si="17">N7/0.1/0.1/PI()</f>
+        <v>1.2574950517476067</v>
+      </c>
+      <c r="T24" s="3">
+        <f t="shared" si="17"/>
+        <v>0.52285016435680864</v>
+      </c>
+    </row>
+    <row r="25" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N25" s="5">
-        <f t="shared" ref="N25:P25" si="13">N9*1000</f>
+        <f t="shared" ref="N25:P25" si="18">N9*1000</f>
         <v>41.677702355668458</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>13.569074456572087</v>
       </c>
-    </row>
-    <row r="26" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="R25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" ref="S25:T25" si="19">N8/0.1/0.1/PI()</f>
+        <v>1.3266424693234729</v>
+      </c>
+      <c r="T25" s="3">
+        <f t="shared" si="19"/>
+        <v>1.3658416527727877</v>
+      </c>
+    </row>
+    <row r="26" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N26" s="5">
-        <f t="shared" ref="N26:P26" si="14">N10*1000</f>
+        <f t="shared" ref="N26:P26" si="20">N10*1000</f>
         <v>2.6389519493006697</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.71837485240501786</v>
       </c>
-    </row>
-    <row r="27" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="R26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" ref="S26:T26" si="21">N9/0.1/0.1/PI()</f>
+        <v>1.3266424693234729</v>
+      </c>
+      <c r="T26" s="3">
+        <f t="shared" si="21"/>
+        <v>1.3658416527727877</v>
+      </c>
+    </row>
+    <row r="27" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N27" s="5">
-        <f t="shared" ref="N27:P27" si="15">N11*1000</f>
+        <f t="shared" ref="N27:P27" si="22">N11*1000</f>
         <v>2.6389519493006697</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.71837485240501786</v>
       </c>
-    </row>
-    <row r="28" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="R27" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" ref="S27:T27" si="23">N10/0.1/0.1/PI()</f>
+        <v>8.4000449462638876E-2</v>
+      </c>
+      <c r="T27" s="3">
+        <f t="shared" si="23"/>
+        <v>7.2310480634443425E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N28" s="5">
-        <f t="shared" ref="N28:P28" si="16">N12*1000</f>
+        <f t="shared" ref="N28:P28" si="24">N12*1000</f>
         <v>21.137449113646618</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>3.9116930294158361</v>
       </c>
-    </row>
-    <row r="29" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="R28" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" ref="S28:T28" si="25">N11/0.1/0.1/PI()</f>
+        <v>8.4000449462638876E-2</v>
+      </c>
+      <c r="T28" s="3">
+        <f t="shared" si="25"/>
+        <v>7.2310480634443425E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N29" s="5">
         <f>N13*1000</f>
         <v>21.137449113646618</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5">
-        <f t="shared" ref="P29" si="17">P13*1000</f>
+        <f t="shared" ref="P29" si="26">P13*1000</f>
         <v>3.9116930294158361</v>
       </c>
-    </row>
-    <row r="30" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="R29" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" ref="S29:T29" si="27">N12/0.1/0.1/PI()</f>
+        <v>0.67282590215805216</v>
+      </c>
+      <c r="T29" s="3">
+        <f t="shared" si="27"/>
+        <v>0.39374485633022616</v>
+      </c>
+    </row>
+    <row r="30" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N30" s="5">
-        <f t="shared" ref="N30:P31" si="18">N14*1000</f>
+        <f t="shared" ref="N30:P31" si="28">N14*1000</f>
         <v>14.399423931056882</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.1234470553032772</v>
       </c>
-    </row>
-    <row r="31" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="R30" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" s="3">
+        <f>N13/0.1/0.1/PI()</f>
+        <v>0.67282590215805216</v>
+      </c>
+      <c r="T30" s="3">
+        <f>O13/0.1/0.1/PI()</f>
+        <v>0.39374485633022616</v>
+      </c>
+    </row>
+    <row r="31" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N31" s="5">
         <f>N15*1000</f>
         <v>14.399423931056882</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.1234470553032772</v>
       </c>
-    </row>
-    <row r="32" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="S31" s="3">
+        <f t="shared" ref="S31:S35" si="29">N14/0.1/0.1/PI()</f>
+        <v>0.45834789926068675</v>
+      </c>
+      <c r="T31" s="3">
+        <f t="shared" ref="T31:T35" si="30">O14/0.1/0.1/PI()</f>
+        <v>0.11308441026904004</v>
+      </c>
+    </row>
+    <row r="32" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
+      <c r="S32" s="3">
+        <f t="shared" si="29"/>
+        <v>0.45834789926068675</v>
+      </c>
+      <c r="T32" s="3">
+        <f t="shared" si="30"/>
+        <v>0.11308441026904004</v>
+      </c>
+    </row>
+    <row r="33" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4048,10 +4208,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="A4" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5279,6 +5439,56 @@
       </c>
       <c r="T25" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O33" s="3">
+        <f>M14/0.1/0.1/PI()</f>
+        <v>0.45489535428945443</v>
+      </c>
+      <c r="P33" s="3">
+        <f>N14/0.1/0.1/PI()</f>
+        <v>3.5126939213734505E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O34" s="3">
+        <f>M8/0.1/0.1/PI()</f>
+        <v>0.24614193926712738</v>
+      </c>
+      <c r="P34" s="3">
+        <f>N8/0.1/0.1/PI()</f>
+        <v>3.5456723844300986E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O35" s="3">
+        <f>M2/0.1/0.1/PI()</f>
+        <v>0.54476149802328933</v>
+      </c>
+      <c r="P35" s="3">
+        <f>N2/0.1/0.1/PI()</f>
+        <v>0.15555320230686831</v>
+      </c>
+    </row>
+    <row r="36" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O36" s="3">
+        <f>M11/0.1/0.1/PI()</f>
+        <v>0.55775793160128717</v>
+      </c>
+      <c r="P36" s="3">
+        <f>N11/0.1/0.1/PI()</f>
+        <v>0.10461690013011382</v>
+      </c>
+    </row>
+    <row r="38" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O38" s="3">
+        <f>M23/0.1/0.1/PI()</f>
+        <v>0.45834789926068675</v>
+      </c>
+      <c r="P38" s="3">
+        <f>N23/0.1/0.1/PI()</f>
+        <v>3.5760430430710095E-2</v>
       </c>
     </row>
   </sheetData>
